--- a/teaching/traditional_assets/database/data/colombia/colombia_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/colombia/colombia_investments_asset_management.xlsx
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="K2">
-        <v>1.37</v>
+        <v>0.083</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9363057324840764</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>531.3253012048193</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -612,34 +612,37 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>44.1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.396</v>
+        <v>0.222</v>
       </c>
       <c r="V2">
-        <v>0.01103064066852368</v>
+        <v>0.004713375796178344</v>
       </c>
       <c r="W2">
-        <v>456.6666666666667</v>
+        <v>0.0166</v>
       </c>
       <c r="X2">
-        <v>0.058074116987721</v>
+        <v>0.04537944222634582</v>
       </c>
       <c r="Y2">
-        <v>456.608592549679</v>
+        <v>-0.02877944222634582</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-8.513513513513512</v>
+        <v>-0.2345786272806256</v>
       </c>
       <c r="AB2">
-        <v>0.058074116987721</v>
+        <v>0.04537944222634582</v>
       </c>
       <c r="AC2">
-        <v>-8.571587630501233</v>
+        <v>-0.2799580695069714</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -651,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.396</v>
+        <v>-0.222</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -660,19 +663,19 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.01115367282559712</v>
+        <v>-0.004735696915397414</v>
       </c>
       <c r="AK2">
-        <v>-0.08601216333622937</v>
+        <v>-0.04646295521138552</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-1.66</v>
+        <v>-1.03</v>
       </c>
       <c r="AQ2">
-        <v>0.1897590361445783</v>
+        <v>1.048543689320388</v>
       </c>
     </row>
     <row r="3">
@@ -692,16 +695,16 @@
         </is>
       </c>
       <c r="K3">
-        <v>1.37</v>
+        <v>0.083</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>44.1</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.9363057324840764</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>531.3253012048193</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -713,34 +716,37 @@
         <v>-0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>44.1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.396</v>
+        <v>0.222</v>
       </c>
       <c r="V3">
-        <v>0.01103064066852368</v>
+        <v>0.004713375796178344</v>
       </c>
       <c r="W3">
-        <v>456.6666666666667</v>
+        <v>0.0166</v>
       </c>
       <c r="X3">
-        <v>0.058074116987721</v>
+        <v>0.04537944222634582</v>
       </c>
       <c r="Y3">
-        <v>456.608592549679</v>
+        <v>-0.02877944222634582</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-8.513513513513512</v>
+        <v>-0.2345786272806256</v>
       </c>
       <c r="AB3">
-        <v>0.058074116987721</v>
+        <v>0.04537944222634582</v>
       </c>
       <c r="AC3">
-        <v>-8.571587630501233</v>
+        <v>-0.2799580695069714</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -752,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.396</v>
+        <v>-0.222</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -761,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.01115367282559712</v>
+        <v>-0.004735696915397414</v>
       </c>
       <c r="AK3">
-        <v>-0.08601216333622937</v>
+        <v>-0.04646295521138552</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-1.66</v>
+        <v>-1.03</v>
       </c>
       <c r="AQ3">
-        <v>0.1897590361445783</v>
+        <v>1.048543689320388</v>
       </c>
     </row>
   </sheetData>
